--- a/src/test/java/dataEngine/SR Workflow.xlsx
+++ b/src/test/java/dataEngine/SR Workflow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -48,9 +48,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>mx155</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -868,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,160 +944,160 @@
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="23">
         <v>1</v>
@@ -1078,34 +1106,34 @@
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="24">
         <v>1</v>
@@ -1114,178 +1142,178 @@
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19"/>
     </row>
     <row r="20" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="16">
         <v>1</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="24">
         <v>1</v>
@@ -1294,70 +1322,70 @@
     </row>
     <row r="23" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="H24" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="23">
         <v>1</v>
@@ -1366,106 +1394,106 @@
     </row>
     <row r="27" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="H31" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="16">
         <v>1</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="24">
         <v>1</v>
@@ -1474,34 +1502,34 @@
     </row>
     <row r="33" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="H33" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33"/>
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="24">
         <v>1</v>
@@ -1510,34 +1538,34 @@
     </row>
     <row r="35" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="23">
         <v>1</v>
@@ -1546,16 +1574,16 @@
     </row>
     <row r="37" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="16">
         <v>1</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="24">
         <v>1</v>
@@ -1564,16 +1592,16 @@
     </row>
     <row r="38" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="23">
         <v>1</v>
@@ -1582,34 +1610,34 @@
     </row>
     <row r="39" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="H39" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="23">
         <v>1</v>
@@ -1618,34 +1646,34 @@
     </row>
     <row r="41" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="I41"/>
     </row>
     <row r="42" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="23">
         <v>1</v>
@@ -1654,16 +1682,16 @@
     </row>
     <row r="43" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="23">
         <v>1</v>
@@ -1672,70 +1700,70 @@
     </row>
     <row r="44" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="H44" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44"/>
     </row>
     <row r="45" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I45"/>
     </row>
     <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="I46"/>
     </row>
     <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="23">
         <v>1</v>
@@ -1744,16 +1772,16 @@
     </row>
     <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="16">
         <v>1</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H48" s="24">
         <v>1</v>
@@ -1762,70 +1790,70 @@
     </row>
     <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I49"/>
     </row>
     <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I50"/>
     </row>
     <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="I51"/>
     </row>
     <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="23">
         <v>1</v>
@@ -1834,16 +1862,16 @@
     </row>
     <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="16">
         <v>1</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H53" s="24">
         <v>1</v>
@@ -1852,16 +1880,16 @@
     </row>
     <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="23">
         <v>1</v>
@@ -1870,34 +1898,34 @@
     </row>
     <row r="55" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="H55" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55"/>
     </row>
     <row r="56" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="23">
         <v>1</v>
@@ -1906,16 +1934,16 @@
     </row>
     <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H57" s="23" t="b">
         <v>1</v>
@@ -1924,16 +1952,16 @@
     </row>
     <row r="58" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="16">
         <v>1</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" s="24">
         <v>1</v>
@@ -1942,160 +1970,160 @@
     </row>
     <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="I59"/>
     </row>
     <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I60"/>
     </row>
     <row r="61" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I61"/>
     </row>
     <row r="62" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F62" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="I62"/>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I63"/>
     </row>
     <row r="64" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I64"/>
     </row>
     <row r="65" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="H65" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I65"/>
     </row>
     <row r="66" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="I66"/>
     </row>
     <row r="67" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="23">
         <v>1</v>
@@ -2104,34 +2132,34 @@
     </row>
     <row r="68" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I68"/>
     </row>
     <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="23">
         <v>1</v>
@@ -2140,51 +2168,51 @@
     </row>
     <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I70"/>
     </row>
     <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F71" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="H71" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F72" s="16">
         <v>1</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H72" s="24">
         <v>1</v>
